--- a/Kafka_Notes.xlsx
+++ b/Kafka_Notes.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
     <sheet name="Kafka" sheetId="1" r:id="rId2"/>
+    <sheet name="Compare" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Kafka</t>
   </si>
@@ -88,13 +89,30 @@
   </si>
   <si>
     <t>Connectors</t>
+  </si>
+  <si>
+    <t>Zookeeper</t>
+  </si>
+  <si>
+    <t>-- Apache's Open source server
+-- enables distributed coordinations
+-- centralized service for maintain config; distributed synchronization, group services and naming</t>
+  </si>
+  <si>
+    <t>-- Provides coordination service for distibuted system. Since Kafka is distributed system with multiple brokers - Zookeeper coordination among multiple brokers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZooKeeper providing services: 
+-- to create a new topic 
+-- Add a new node or delete old one 
+-- rebalance replicas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,12 +121,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -436,98 +459,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,315 +1017,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:6" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="17"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Kafka_Notes.xlsx
+++ b/Kafka_Notes.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
     <sheet name="Kafka" sheetId="1" r:id="rId2"/>
-    <sheet name="Compare" sheetId="3" r:id="rId3"/>
+    <sheet name="Situation &amp; Sols" sheetId="5" r:id="rId3"/>
+    <sheet name="config" sheetId="4" r:id="rId4"/>
+    <sheet name="Compare" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>Kafka</t>
   </si>
@@ -51,9 +53,6 @@
   </si>
   <si>
     <t>Message</t>
-  </si>
-  <si>
-    <t>Data (File, Result set etc ) bottom line it’s a array of bytes</t>
   </si>
   <si>
     <t>--Sender issues Data (Message (array of bytes)); 
@@ -61,13 +60,6 @@
   </si>
   <si>
     <t>-- Receiver consumes Data which was initiated by Producer via Kafka server.</t>
-  </si>
-  <si>
-    <t>-- Kafka Server act as a Agent between Producer and Consumer</t>
-  </si>
-  <si>
-    <t>-- Distributed system 
--- Scalable and Fault Tolerable Messaging Tool</t>
   </si>
   <si>
     <t>a unique identification of a data stream; 
@@ -106,13 +98,556 @@
 -- to create a new topic 
 -- Add a new node or delete old one 
 -- rebalance replicas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-- PRODUCER : msg published to a TOPIC
+-- CONSUMER : subscribed to a TOPIC
+-- MESSAGE : array of bytes (json, strings etc)
+-- TOPIC : collection of MESSAGES
+-- KAFKA : CLUSTER of servers called BROKER</t>
+  </si>
+  <si>
+    <t>Designed / Aimed For:
+-- high throughput
+-- fast performance
+-- scalability 
+-- high availability.</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Queue exists</t>
+  </si>
+  <si>
+    <t>Msg Persistence</t>
+  </si>
+  <si>
+    <t>Msg Retention</t>
+  </si>
+  <si>
+    <t>Msgs once is consumed, it will be removed from storage</t>
+  </si>
+  <si>
+    <t>Topic stores msgs in a storage;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic stores msgs </t>
+  </si>
+  <si>
+    <t>MQ/JMS</t>
+  </si>
+  <si>
+    <t>No Queue exists; But It follow paradigm similar to MQ/JMS</t>
+  </si>
+  <si>
+    <t>Msgs are not removed, even after consumed;
+retention is configurable</t>
+  </si>
+  <si>
+    <t>Msg Retention management</t>
+  </si>
+  <si>
+    <t>Msgs once consumed and processed, ACK/Commit being sent to remove from queue, if ACK fails the msg might get processed twise.</t>
+  </si>
+  <si>
+    <t>Kafka handles ACK fail situation by msg retention and state management based on consumer offset</t>
+  </si>
+  <si>
+    <t>Topic Partition</t>
+  </si>
+  <si>
+    <t>Partition is an ordered, Immutable seq of msgs continually appended; Each Partition has one server as a leader, and follower for others;</t>
+  </si>
+  <si>
+    <t>Msg Sequencing</t>
+  </si>
+  <si>
+    <t>No guarantee msg will be received in a sequence in order it was sent.</t>
+  </si>
+  <si>
+    <t>the sequence is maintained at a Partition level</t>
+  </si>
+  <si>
+    <t>Msg Read</t>
+  </si>
+  <si>
+    <t>Consumer in Kafka issues fetch req to broker from which partition it wants to consume; 
+Consumer specify offset from which the msg log is read from.</t>
+  </si>
+  <si>
+    <t>Partition is an ordered, Immutable seq of msgs continually appended; Each Partition has one server as a leader, and follower for others;
+-- Consumer sents offset which is to identify Partition to read from.</t>
+  </si>
+  <si>
+    <t>Load Balancing</t>
+  </si>
+  <si>
+    <t>messaging systems to be designed using some clustering mechanism and the onus of distributing the load across the cluster members was on the producer sending the messages.</t>
+  </si>
+  <si>
+    <t>Automatic Failover/High Availabilty</t>
+  </si>
+  <si>
+    <t>not have the concept of message replication</t>
+  </si>
+  <si>
+    <t>leader-followers / slaves/replicas are managed through Zookeeper</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>-- Messaging system
+-- Connectors
+-- Stream Processing</t>
+  </si>
+  <si>
+    <t>Messaging system:
+-- Producer, Message, Topic, Consumer</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Leader take care all req/res to a Partition.
+when Kafka is partitioned, Producer/ Consumer point of contact with Leader.</t>
+  </si>
+  <si>
+    <t>Follower</t>
+  </si>
+  <si>
+    <t>Copy Data from Leader</t>
+  </si>
+  <si>
+    <t>Partition Factor</t>
+  </si>
+  <si>
+    <t>if Partition-Factor is 3 ; (3 Brokers )
+-- 1 Leader (Active)
+-- 2 Followers (Replica copies from Leader ) (Passive)
+-- 3 Nodes in a Cluster (Ideally One Broker per Computer)</t>
+  </si>
+  <si>
+    <t>server.prop</t>
+  </si>
+  <si>
+    <t>zookeeper.connect</t>
+  </si>
+  <si>
+    <t>-- Kafka Server act as a Agent between Producer and Consumer;
+-- Each Broker runs on own system.
+--</t>
+  </si>
+  <si>
+    <t>Kafka uses zookeeper; 
+kafka server refers zookeeper port; brokers run on different systems, each one link to a zookeeper port; 
+Each zookeeper port that links to many other brokers are form a cluster;</t>
+  </si>
+  <si>
+    <t>delete.topic.enable</t>
+  </si>
+  <si>
+    <t>allow kafka to delete a topic; by default its false;
+Kafka-topic.. File configs this parameter.</t>
+  </si>
+  <si>
+    <t>auto.create.topics.enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if producer sends non-exists topic, kafka to create the topic automatically </t>
+  </si>
+  <si>
+    <t>num.partitions</t>
+  </si>
+  <si>
+    <t>default.replication.factor</t>
+  </si>
+  <si>
+    <t>log.retentions.ms</t>
+  </si>
+  <si>
+    <t>log.retentions.bytes</t>
+  </si>
+  <si>
+    <t>message retention by time</t>
+  </si>
+  <si>
+    <t>message retention by size, applies to partition; when max size reaches it cleans up the message</t>
+  </si>
+  <si>
+    <t>Connectors:
+-- Import/Export bulk data to/from DB
+-- in/out movement of data between kafka and other system.</t>
+  </si>
+  <si>
+    <t>Stream Processing:
+-- Flow of data goes in and out of Messaging system.
+-- client processing data stored in kafka</t>
+  </si>
+  <si>
+    <t>-- Distributed system 
+-- Scalable and Fault Tolerable Messaging Tool
+-- Async communication among system/applications</t>
+  </si>
+  <si>
+    <t>Producer Record</t>
+  </si>
+  <si>
+    <t>write producer code to send to Kafka.
+-- Properties are set to config Producer while instantiate
+------ BootStrap Server (Broker ip port)
+------ In Serializer; Out Serializer</t>
+  </si>
+  <si>
+    <t>-- Topic
+-- Partition No
+-- key
+-- Value
+-- Timestamp</t>
+  </si>
+  <si>
+    <t>using serializer the message is converted to bytes; msg key hashed and sends the msg to specific Partition # otherwise in round-robin sends to any partitions</t>
+  </si>
+  <si>
+    <t>Usage: 
+-- like ESB Bus, to integrate various systems
+-- PIPE; series of validation, transformations
+-- analytics; store records later consume
+-- various transactions and handle by diff sys.</t>
+  </si>
+  <si>
+    <t>Data (File, Result set etc ) bottom line it’s a array of bytes;
+-- Message can be key-value pair; key is optional; Hash the key to identify Partition;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String topicName = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SimpleProducerTopic"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+String key = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Key1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+String value = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Value-1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;
+ Properties props = new Properties();
+  props.put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"bootstrap.servers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"localhost:9092,localhost:9093"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+ props.put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"key.serializer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"org.apache.kafka.common.serialization.StringSerializer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);         
+ props.put(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"value.serializer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"org.apache.kafka.common.serialization.StringSerializer"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Producer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;String, String&gt; producer = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KafkaProducer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;&gt;(props);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ProducerRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;String, String&gt; record = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ProducerRecord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;&gt;(topicName,key,value);
+   producer.send(record);</t>
+    </r>
+  </si>
+  <si>
+    <t>Communication mode</t>
+  </si>
+  <si>
+    <t>-- Fire and Forget (Msg could be lost)
+-- Synchronous (wait for resp )
+-- Asynchronos ( callBack() )</t>
+  </si>
+  <si>
+    <t>max.in.flight.requests.per.connection</t>
+  </si>
+  <si>
+    <t>producer</t>
+  </si>
+  <si>
+    <t>max num of msg to be produced, before receive its responses</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>-- Producer record specify the PARTITION NUM
+-- Producer record specify KEY, which is hashed to find partition num
+- - - - Hashing Key fails two scenario :
+******* Hashed Key can give same value for different Key
+******* when partition is increased, then the hash key will be different because hashkey is uses mod of number of partition.
+******* To overcome the Hash issue, CUSTOM PARTITION
+-- Round Robin when No number or key passed in.</t>
+  </si>
+  <si>
+    <t>partitioner.class</t>
+  </si>
+  <si>
+    <t>specify CUSTOM PARTITIONER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,16 +668,54 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0000CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -472,11 +1045,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -535,41 +1184,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,6 +1257,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -741,6 +1426,403 @@
         <a:xfrm>
           <a:off x="6667500" y="6572250"/>
           <a:ext cx="3749040" cy="1683135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2362200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1642509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://kafka.apache.org/images/producer_consumer.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="13000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4924425" y="628650"/>
+          <a:ext cx="2286000" cy="1594884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2236470</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1397466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://kafka.apache.org/images/log_anatomy.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4981575" y="2743202"/>
+          <a:ext cx="2103120" cy="1349839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1601162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId5">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="34000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-5000" contrast="51000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="4276717"/>
+          <a:ext cx="3200400" cy="1544020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1668573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="5000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="2000" contrast="25000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="1038226"/>
+          <a:ext cx="3657600" cy="1639997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2738444</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982199" y="342900"/>
+          <a:ext cx="2700345" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2207895</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>649966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13039725" y="323861"/>
+          <a:ext cx="2103120" cy="621380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2425065</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>891434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15973425" y="323860"/>
+          <a:ext cx="2377440" cy="862849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3781425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1622428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="10000" contrast="30000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="8829675"/>
+          <a:ext cx="3657600" cy="1584328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1017,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1046,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
@@ -1057,18 +2139,18 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
@@ -1079,18 +2161,18 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
@@ -1101,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
@@ -1112,7 +2194,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="12"/>
@@ -1123,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="12"/>
@@ -1134,7 +2216,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
@@ -1142,7 +2224,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
@@ -1155,24 +2237,36 @@
       <c r="E13" s="14"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="12"/>
     </row>
@@ -1241,179 +2335,1264 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="44.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="1" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="2:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="11" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="2:7" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="2:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="2:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="11" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="2:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="2:9" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F19:G19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="17" style="41" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" style="41" customWidth="1"/>
+    <col min="4" max="11" width="17" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+    </row>
+    <row r="11" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Kafka_Notes.xlsx
+++ b/Kafka_Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
@@ -1239,16 +1239,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2337,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2536,10 +2536,10 @@
       <c r="D19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="38"/>
       <c r="I19" s="27"/>
     </row>
@@ -2601,17 +2601,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17" style="41" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="41" customWidth="1"/>
-    <col min="4" max="11" width="17" style="41" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="2" width="17" style="39" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" style="39" customWidth="1"/>
+    <col min="4" max="11" width="17" style="39" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2624,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kafka_Notes.xlsx
+++ b/Kafka_Notes.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{91DA2D71-8934-464A-9EB6-358CCEB85679}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
     <sheet name="Kafka" sheetId="1" r:id="rId2"/>
-    <sheet name="Situation &amp; Sols" sheetId="5" r:id="rId3"/>
-    <sheet name="config" sheetId="4" r:id="rId4"/>
-    <sheet name="Compare" sheetId="3" r:id="rId5"/>
+    <sheet name="Kafka-Internals" sheetId="6" r:id="rId3"/>
+    <sheet name="Zookeeper" sheetId="7" r:id="rId4"/>
+    <sheet name="Usecases" sheetId="5" r:id="rId5"/>
+    <sheet name="config" sheetId="4" r:id="rId6"/>
+    <sheet name="Compare" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
   <si>
     <t>Kafka</t>
   </si>
@@ -59,13 +62,6 @@
 -- Producer is not directly sends data to consumer, instead send to Kafka Server</t>
   </si>
   <si>
-    <t>-- Receiver consumes Data which was initiated by Producer via Kafka server.</t>
-  </si>
-  <si>
-    <t>a unique identification of a data stream; 
-Many producer may produce to one Topic; Many consumer may be interested in a Topic.</t>
-  </si>
-  <si>
     <t>a unit of a server;</t>
   </si>
   <si>
@@ -86,18 +82,7 @@
     <t>Zookeeper</t>
   </si>
   <si>
-    <t>-- Apache's Open source server
--- enables distributed coordinations
--- centralized service for maintain config; distributed synchronization, group services and naming</t>
-  </si>
-  <si>
     <t>-- Provides coordination service for distibuted system. Since Kafka is distributed system with multiple brokers - Zookeeper coordination among multiple brokers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ZooKeeper providing services: 
--- to create a new topic 
--- Add a new node or delete old one 
--- rebalance replicas </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -108,13 +93,6 @@
 -- KAFKA : CLUSTER of servers called BROKER</t>
   </si>
   <si>
-    <t>Designed / Aimed For:
--- high throughput
--- fast performance
--- scalability 
--- high availability.</t>
-  </si>
-  <si>
     <t>Queue</t>
   </si>
   <si>
@@ -175,10 +153,6 @@
   <si>
     <t>Consumer in Kafka issues fetch req to broker from which partition it wants to consume; 
 Consumer specify offset from which the msg log is read from.</t>
-  </si>
-  <si>
-    <t>Partition is an ordered, Immutable seq of msgs continually appended; Each Partition has one server as a leader, and follower for others;
--- Consumer sents offset which is to identify Partition to read from.</t>
   </si>
   <si>
     <t>Load Balancing</t>
@@ -236,11 +210,6 @@
     <t>zookeeper.connect</t>
   </si>
   <si>
-    <t>-- Kafka Server act as a Agent between Producer and Consumer;
--- Each Broker runs on own system.
---</t>
-  </si>
-  <si>
     <t>Kafka uses zookeeper; 
 kafka server refers zookeeper port; brokers run on different systems, each one link to a zookeeper port; 
 Each zookeeper port that links to many other brokers are form a cluster;</t>
@@ -287,18 +256,7 @@
 -- client processing data stored in kafka</t>
   </si>
   <si>
-    <t>-- Distributed system 
--- Scalable and Fault Tolerable Messaging Tool
--- Async communication among system/applications</t>
-  </si>
-  <si>
     <t>Producer Record</t>
-  </si>
-  <si>
-    <t>write producer code to send to Kafka.
--- Properties are set to config Producer while instantiate
------- BootStrap Server (Broker ip port)
------- In Serializer; Out Serializer</t>
   </si>
   <si>
     <t>-- Topic
@@ -642,12 +600,189 @@
   <si>
     <t>specify CUSTOM PARTITIONER</t>
   </si>
+  <si>
+    <t>A distributed publish-subscribe messaging system / Broker;
+'-- Distributed system 
+-- Scalable and Fault Tolerable Messaging Tool
+-- Async communication among system/applications</t>
+  </si>
+  <si>
+    <t>Designed / Aimed For:
+-- high throughput
+-- fast performance
+-- scalability 
+-- high availability.
+-- Persistent messaging with O(1) disk structures that provide constant time performance even with many TB of stored messages.</t>
+  </si>
+  <si>
+    <t>partitioning messages over Kafka servers and distributing consumption over a cluster of consumer machines while maintaining per-partition ordering semantics.
+-- Partition is an ordered, Immutable seq of msgs continually appended; Each Partition has one server as a leader, and follower for others;
+-- Consumer sents offset which is to identify Partition to read from.</t>
+  </si>
+  <si>
+    <t>ISSUES</t>
+  </si>
+  <si>
+    <t>-- If message is not consumed faster enough, possible to get memory issue.</t>
+  </si>
+  <si>
+    <t>Consumption management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Message in Kafka, has unique identifier (topic and partition)
+-- Consumer can look for message using identifier even older
+-- Identfier are sequential
+-- </t>
+  </si>
+  <si>
+    <t>Scalable</t>
+  </si>
+  <si>
+    <t>Scalability is very challenging</t>
+  </si>
+  <si>
+    <t>Horizontally scalable very easily</t>
+  </si>
+  <si>
+    <t>-- Kafka Server act as a Agent between Producer and Consumer;
+-- Each Broker runs on own system.
+-- Stores messages, take care of reduntance issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a unique identification of a data stream; 
+Many producer may produce to one Topic; Many consumer may be interested in a Topic.
+-- Topic can be PARTITIONED
+-- </t>
+  </si>
+  <si>
+    <t>-- Receiver consumes Data which was initiated by Producer via Kafka server.
+-- can consume only from particular PARTITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write producer code to send to Kafka.
+-- Properties are set to config Producer while instantiate
+------ BootStrap Server (Broker ip port)
+------ In Serializer; Out Serializer
+</t>
+  </si>
+  <si>
+    <t>Producer requires PARTITION scheme</t>
+  </si>
+  <si>
+    <t>-- Apache's Open source server; Archestration of services;
+-- enables distributed coordinations
+-- centralized service for maintain config; distributed synchronization, group services and naming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZooKeeper providing services: 
+-- to create a new topic 
+-- Add a new node or delete old one 
+-- rebalance replicas 
+-- Choose Leaders
+-- Server fail over Immediately bring up replicas, choose leader</t>
+  </si>
+  <si>
+    <t>Consumer Group</t>
+  </si>
+  <si>
+    <t>-- subscribe to a Topic and a Partition
+-- keep track of what message offset was consumed last
+-- Lot of error handling need to be done if Broker has error; But this is not the case for Consumer Group.</t>
+  </si>
+  <si>
+    <t>-- Kafka make sure only one Consumer from a Group, sees a message (Topic and with in Partition) at a time
+-- Zookeeper keep track of what messages were consumed topic/partition
+-- Consumer Group = 1 thread per partition</t>
+  </si>
+  <si>
+    <t>Building Blocks</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Offset only is for Transaction identifier complicates consumer
+-- Consumer Group = 1 Thread per Partition; Expensive Operations can not throw more threads
+</t>
+  </si>
+  <si>
+    <t>Memory Mapped Files</t>
+  </si>
+  <si>
+    <t>Commit-Log</t>
+  </si>
+  <si>
+    <t>-- File on our disc, appends stream of events coming into</t>
+  </si>
+  <si>
+    <t>Brokers</t>
+  </si>
+  <si>
+    <t>Kafka's every Partitions are called Brokers</t>
+  </si>
+  <si>
+    <t>-- Kernel maps contents of files directly to memory. Any application can ask for such a mapping, a convenient and high-performance way to do file I/O</t>
+  </si>
+  <si>
+    <t>Kernel Space</t>
+  </si>
+  <si>
+    <t>Page-cache</t>
+  </si>
+  <si>
+    <t>CPU - cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Brokers write messages to disk, using KERNAL-SPACE,  NOT JVM
+-- Uses OS Pagecache
+-- Dynamically loaded libraries are brought into your program's address space via file mapping. </t>
+  </si>
+  <si>
+    <t>-- all regular file I/O happens through the page cache.
+-- Page-Table : Virtual Mapping Addr &amp; Absolute Address
+-- Page Frame : Absolute Storage; 4kb per frame
+-- Page-Cash : any IO file read/load/render its make use of it.</t>
+  </si>
+  <si>
+    <t>-- Very Fast; Because it uses KERNAL SPACE, NOT JVM
+-- Message are stored in Flat files on disk
+-- Topics and Partitions are Directories
+-- Low memory utilization because nothing to keep in memory, rather files
+-- Broker does NOT keep track of who consumed the messages</t>
+  </si>
+  <si>
+    <t>Consumer Use Case - Batch Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Consumer scheduled to run every after certain time, Ask kafka for events from last request;
+-- </t>
+  </si>
+  <si>
+    <t>Consumer Use Case - Complex Event Processing</t>
+  </si>
+  <si>
+    <t>-- Executes events on Kafka data; any mistakes can replay</t>
+  </si>
+  <si>
+    <t>Consumer use case - Operation Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Since consumer can start from any offset; It can go back and work on historic data;
+-- </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,8 +835,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,8 +856,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F2F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1121,11 +1269,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1239,9 +1555,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1249,6 +1562,72 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,6 +1638,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF4F2F5"/>
       <color rgb="FF0000CC"/>
     </mruColors>
   </colors>
@@ -1290,7 +1670,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1343,7 +1729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1396,7 +1788,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1443,18 +1841,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2362200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1642509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://kafka.apache.org/images/producer_consumer.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://kafka.apache.org/images/producer_consumer.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1510,18 +1914,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2236470</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1397466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://kafka.apache.org/images/log_anatomy.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://kafka.apache.org/images/log_anatomy.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1565,18 +1975,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>57142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1601162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1618,18 +2034,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1668573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1682,7 +2104,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1720,7 +2148,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1758,7 +2192,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1785,18 +2225,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3781425</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1622428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1823,6 +2269,143 @@
         <a:xfrm>
           <a:off x="7591425" y="8829675"/>
           <a:ext cx="3657600" cy="1584328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>126994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5876378</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4854442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5F7585-1BBC-8346-A1FE-C95D2EFA7E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10337800" y="1142994"/>
+          <a:ext cx="5762078" cy="4727448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5239642</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4722880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29233641-7236-D94C-94D9-8229AC5C3192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16370300" y="1130304"/>
+          <a:ext cx="5125342" cy="4608576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5956604</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3598164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33822242-BE5C-9042-AC14-9EEE2B002425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="6299200"/>
+          <a:ext cx="5893104" cy="3483864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,33 +2679,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -2133,193 +2716,193 @@
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="2:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="2:6" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
@@ -2334,28 +2917,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="44.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5" style="1" customWidth="1"/>
+    <col min="6" max="8" width="44.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="50" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
+    <row r="1" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="56"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -2364,226 +2947,461 @@
       <c r="H2" s="36"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="2:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:9" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="2:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="35"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="2:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="59"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="55"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="56"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="2:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="2:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="2:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="2:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="C11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="57"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="57"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="59"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="55"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="60"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="2:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="B18" s="61"/>
+      <c r="C18" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="61"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="61"/>
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="55"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="56"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="2:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G24" s="41"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="B25" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="11" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="2:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="2:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="30"/>
+      <c r="C26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="58"/>
+      <c r="C27" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="59"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="55"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="60"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B32" s="61"/>
+      <c r="C32" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="61"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="61"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="61"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="61"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="62"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
+    </row>
+    <row r="38" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="55"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="60"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" spans="2:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="B40" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="61"/>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="61"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="61"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="61"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="61"/>
+      <c r="G45" s="47"/>
+    </row>
+    <row r="46" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="62"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
+    </row>
+    <row r="47" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="55"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="60"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B49" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="47"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="61"/>
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="61"/>
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="61"/>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="61"/>
+      <c r="G53" s="47"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="61"/>
+      <c r="G54" s="47"/>
+    </row>
+    <row r="55" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="62"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2592,130 +3410,854 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3028511D-57A5-A74C-AAEB-7EFB1CB69C14}">
+  <dimension ref="B3:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="34"/>
+    <col min="2" max="2" width="42.83203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="80.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="79.1640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="69.83203125" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" spans="2:5" ht="296" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="63"/>
+    </row>
+    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="63"/>
+    </row>
+    <row r="7" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="63"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="63"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC292B77-B847-4149-AA60-3A240F0A1673}">
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17" style="39" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="39" customWidth="1"/>
-    <col min="4" max="11" width="17" style="39" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="39"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="58.5" customWidth="1"/>
+    <col min="5" max="5" width="57.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>89</v>
-      </c>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B5" s="25"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B4:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="88.5" style="34" customWidth="1"/>
+    <col min="4" max="11" width="17" style="34" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="B4" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B8" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B9" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="4.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="69.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="34" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="34" t="s">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="34" t="s">
+      <c r="D8" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="C9" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2723,23 +4265,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2759,7 +4301,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -2779,7 +4321,7 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
@@ -2799,14 +4341,14 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="21"/>
@@ -2823,16 +4365,16 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="21"/>
@@ -2849,16 +4391,16 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="21"/>
@@ -2875,16 +4417,16 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="21"/>
@@ -2901,16 +4443,16 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="21"/>
@@ -2927,16 +4469,16 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="21"/>
@@ -2953,13 +4495,13 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="33"/>
@@ -2977,13 +4519,13 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
@@ -3001,14 +4543,14 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="21"/>
@@ -3025,16 +4567,16 @@
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="21"/>
@@ -3051,12 +4593,16 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="B14" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -3071,12 +4617,18 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="33"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -3091,12 +4643,12 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -3111,7 +4663,7 @@
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -3131,7 +4683,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -3151,7 +4703,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -3171,7 +4723,7 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -3191,7 +4743,7 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -3211,7 +4763,7 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -3231,7 +4783,7 @@
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -3251,7 +4803,7 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -3271,7 +4823,7 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -3291,7 +4843,7 @@
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -3311,7 +4863,7 @@
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -3331,7 +4883,7 @@
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -3351,7 +4903,7 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -3371,7 +4923,7 @@
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -3391,7 +4943,7 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -3411,7 +4963,7 @@
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -3431,7 +4983,7 @@
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3451,7 +5003,7 @@
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -3471,7 +5023,7 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3491,7 +5043,7 @@
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -3511,7 +5063,7 @@
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -3531,7 +5083,7 @@
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -3551,7 +5103,7 @@
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -3571,7 +5123,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -3591,6 +5143,46 @@
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
     </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kafka_Notes.xlsx
+++ b/Kafka_Notes.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{91DA2D71-8934-464A-9EB6-358CCEB85679}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
@@ -15,6 +14,7 @@
     <sheet name="Usecases" sheetId="5" r:id="rId5"/>
     <sheet name="config" sheetId="4" r:id="rId6"/>
     <sheet name="Compare" sheetId="3" r:id="rId7"/>
+    <sheet name="Kafka-Code" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t>Kafka</t>
   </si>
@@ -777,12 +777,94 @@
     <t xml:space="preserve">-- Since consumer can start from any offset; It can go back and work on historic data;
 -- </t>
   </si>
+  <si>
+    <t xml:space="preserve">set JAVA_HOME=C:\Program Files\Java\jdk1.8.0_151
+set path=%path%;%java_home%\bin;
+cd C:\Users\pg38446\Kafka\kafka_2.11-1.1.0\bin\windows\
+kafka-server-start.bat "..\..\config\server.properties"
+cmd /k 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set JAVA_HOME=C:\Program Files\Java\jdk1.8.0_151
+set path=%path%;%java_home%\bin;
+cd C:\Users\pg38446\Kafka\zookeeper-3.5.4-beta\bin\
+zkServer.cmd
+cmd /k 
+</t>
+  </si>
+  <si>
+    <t>kafka-server-start.bat has dependencies with java and env variable JAVA_HOME</t>
+  </si>
+  <si>
+    <t>Create a topic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kafka-topics.bat --create --topic test --zookeeper localhost:2020 --partitions 1 --replication-factor 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>check the topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:
+bin/kafka-topics.sh --list --zookeeper localhost:2181
+bin/kafka-topics.sh --zookeeper localhost:2181 --describe --topic test</t>
+    </r>
+  </si>
+  <si>
+    <t>Create messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka-console-producer.bat --topic hello --broker-list localhost:9092
+bin/kafka-console-producer.sh --topic test --broker-list localhost:9092 </t>
+  </si>
+  <si>
+    <t>Start consumer</t>
+  </si>
+  <si>
+    <t>kafka-console-consumer.bat --topic hello --bootstrap-server localhost:9092 --from-beginning
+bin/kafka-console-consumer.sh --zookeeper localhost:2181 --topic test --from-beginning</t>
+  </si>
+  <si>
+    <t>Start kafka server</t>
+  </si>
+  <si>
+    <t>Start Zookeeper server</t>
+  </si>
+  <si>
+    <t>bin/zookeeper-server-start.sh config/zookeeper.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bin/kafka-server-start.sh config/server.properties
+</t>
+  </si>
+  <si>
+    <t>list of topic</t>
+  </si>
+  <si>
+    <t>kafka-topics.bat --list --zookeeper localhost:2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +924,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1441,7 +1536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1558,76 +1653,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2679,33 +2783,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>1</v>
@@ -2716,7 +2820,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
@@ -2727,7 +2831,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
@@ -2738,7 +2842,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>5</v>
@@ -2749,7 +2853,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
@@ -2760,7 +2864,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
         <v>4</v>
@@ -2771,7 +2875,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
         <v>6</v>
@@ -2782,7 +2886,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
@@ -2793,7 +2897,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="2:6" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
         <v>8</v>
@@ -2804,7 +2908,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
         <v>15</v>
@@ -2813,14 +2917,14 @@
       <c r="E12" s="14"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
         <v>47</v>
@@ -2831,7 +2935,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
         <v>49</v>
@@ -2842,7 +2946,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
         <v>51</v>
@@ -2853,56 +2957,56 @@
       <c r="E16" s="14"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
@@ -2917,28 +3021,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.5" style="1" customWidth="1"/>
-    <col min="6" max="8" width="44.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="44.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="50" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
+    <row r="1" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="54"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -2947,8 +3051,8 @@
       <c r="H2" s="36"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="2:9" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+    <row r="3" spans="2:9" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -2965,8 +3069,8 @@
       <c r="H3" s="14"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="10"/>
@@ -2977,23 +3081,23 @@
       <c r="H4" s="14"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="2:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="2:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="53"/>
+    <row r="6" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="57"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -3001,19 +3105,19 @@
       <c r="H6" s="37"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="55"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="C8" s="52"/>
+    <row r="7" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="53"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="54"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -3021,8 +3125,8 @@
       <c r="H8" s="36"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="2:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57" t="s">
+    <row r="9" spans="2:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="55" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3035,8 +3139,8 @@
       <c r="H9" s="14"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="2:9" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="57" t="s">
+    <row r="10" spans="2:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="55" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3049,8 +3153,8 @@
       <c r="H10" s="14"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="2:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="57" t="s">
+    <row r="11" spans="2:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3063,8 +3167,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57"/>
+    <row r="12" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="55"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
         <v>46</v>
@@ -3079,8 +3183,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="55"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3089,8 +3193,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
+    <row r="14" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="57"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -3099,72 +3203,72 @@
       <c r="H14" s="37"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="60"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="61" t="s">
+    <row r="15" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="58"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="2:9" ht="72" x14ac:dyDescent="0.2">
-      <c r="B18" s="61"/>
-      <c r="C18" s="50" t="s">
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="2:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="59"/>
+      <c r="C18" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="61"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="61"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-    </row>
-    <row r="22" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="59"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="60"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="54"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -3173,8 +3277,8 @@
       <c r="H23" s="36"/>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="2:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="57" t="s">
+    <row r="24" spans="2:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3183,15 +3287,15 @@
       <c r="D24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="38"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B25" s="57" t="s">
+    <row r="25" spans="2:9" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="55" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3204,8 +3308,8 @@
       <c r="H25" s="14"/>
       <c r="I25" s="27"/>
     </row>
-    <row r="26" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="57" t="s">
+    <row r="26" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="55" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -3218,20 +3322,20 @@
       <c r="H26" s="14"/>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="58"/>
-      <c r="C27" s="42" t="s">
+    <row r="27" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="56"/>
+      <c r="C27" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="59"/>
+    <row r="28" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="57"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
@@ -3240,164 +3344,164 @@
       <c r="H28" s="37"/>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="60"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="61" t="s">
+    <row r="29" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="53"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="58"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="2:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="B32" s="61"/>
-      <c r="C32" s="50" t="s">
+      <c r="G31" s="45"/>
+    </row>
+    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="61"/>
-      <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="61"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="61"/>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="61"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="62"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
-    </row>
-    <row r="38" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="60"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-    </row>
-    <row r="40" spans="2:7" ht="60" x14ac:dyDescent="0.2">
-      <c r="B40" s="61" t="s">
+      <c r="G32" s="45"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="59"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="59"/>
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="59"/>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="59"/>
+      <c r="G36" s="45"/>
+    </row>
+    <row r="37" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="60"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+    </row>
+    <row r="38" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="53"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="58"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="47"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="61"/>
-      <c r="G41" s="47"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="61"/>
-      <c r="G42" s="47"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="61"/>
-      <c r="G43" s="47"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="61"/>
-      <c r="G44" s="47"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="61"/>
-      <c r="G45" s="47"/>
-    </row>
-    <row r="46" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="62"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
-    </row>
-    <row r="47" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="55"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="60"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-    </row>
-    <row r="49" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B49" s="61" t="s">
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="59"/>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="59"/>
+      <c r="G42" s="45"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="59"/>
+      <c r="G43" s="45"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="59"/>
+      <c r="G44" s="45"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="59"/>
+      <c r="G45" s="45"/>
+    </row>
+    <row r="46" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="60"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="58"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
+    </row>
+    <row r="49" spans="2:7" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="G49" s="47"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="61"/>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="61"/>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="61"/>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="61"/>
-      <c r="G53" s="47"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="61"/>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="62"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
+      <c r="G49" s="45"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="59"/>
+      <c r="G50" s="45"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="59"/>
+      <c r="G51" s="45"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="59"/>
+      <c r="G52" s="45"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="59"/>
+      <c r="G53" s="45"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="59"/>
+      <c r="G54" s="45"/>
+    </row>
+    <row r="55" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="60"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3410,24 +3514,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3028511D-57A5-A74C-AAEB-7EFB1CB69C14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="34"/>
-    <col min="2" max="2" width="42.83203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="80.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="79.1640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="69.83203125" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="10.85546875" style="34"/>
+    <col min="2" max="2" width="42.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="80.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="79.140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
         <v>107</v>
       </c>
@@ -3435,50 +3539,50 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="407.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="63"/>
-    </row>
-    <row r="5" spans="2:5" ht="296" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" spans="2:5" ht="296.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="63"/>
-    </row>
-    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="61"/>
+    </row>
+    <row r="6" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>115</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="63"/>
-    </row>
-    <row r="7" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="61"/>
+    </row>
+    <row r="7" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>108</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="63"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E8" s="63"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E9" s="63"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E10" s="63"/>
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="61"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3487,25 +3591,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC292B77-B847-4149-AA60-3A240F0A1673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="58.5" customWidth="1"/>
-    <col min="5" max="5" width="57.83203125" customWidth="1"/>
-    <col min="6" max="6" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -3515,7 +3619,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>16</v>
       </c>
@@ -3533,7 +3637,7 @@
       <c r="H4" s="38"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -3543,7 +3647,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3553,7 +3657,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -3563,8 +3667,8 @@
       <c r="H7" s="37"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3575,7 +3679,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3586,7 +3690,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3597,7 +3701,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3608,7 +3712,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3619,7 +3723,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3630,7 +3734,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3641,7 +3745,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3652,7 +3756,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3663,7 +3767,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3674,7 +3778,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3685,7 +3789,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3696,7 +3800,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3707,7 +3811,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3718,7 +3822,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3729,7 +3833,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3740,7 +3844,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3751,7 +3855,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3762,7 +3866,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3773,7 +3877,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3784,7 +3888,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3795,7 +3899,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3806,7 +3910,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3817,7 +3921,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3828,7 +3932,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3839,7 +3943,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3850,7 +3954,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3861,7 +3965,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3872,7 +3976,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3883,7 +3987,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3894,7 +3998,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3905,7 +4009,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3916,7 +4020,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3927,7 +4031,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3938,7 +4042,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3949,7 +4053,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3960,7 +4064,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3971,7 +4075,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3982,7 +4086,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3993,7 +4097,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4004,7 +4108,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4015,7 +4119,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4026,7 +4130,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4037,7 +4141,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4048,7 +4152,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4059,7 +4163,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4070,7 +4174,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4081,7 +4185,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4092,7 +4196,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4109,23 +4213,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="88.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="88.42578125" style="34" customWidth="1"/>
     <col min="4" max="11" width="17" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="34"/>
+    <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
         <v>79</v>
       </c>
@@ -4133,7 +4237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>120</v>
       </c>
@@ -4141,7 +4245,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>122</v>
       </c>
@@ -4149,7 +4253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
         <v>124</v>
       </c>
@@ -4163,24 +4267,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="69.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="34"/>
+    <col min="1" max="1" width="4.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
         <v>53</v>
       </c>
@@ -4191,7 +4295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="34" t="s">
         <v>56</v>
       </c>
@@ -4199,7 +4303,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="34" t="s">
         <v>58</v>
       </c>
@@ -4207,17 +4311,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="34" t="s">
         <v>62</v>
       </c>
@@ -4225,7 +4329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="34" t="s">
         <v>63</v>
       </c>
@@ -4233,7 +4337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>77</v>
       </c>
@@ -4244,7 +4348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>77</v>
       </c>
@@ -4255,7 +4359,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>77</v>
       </c>
@@ -4266,22 +4370,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4301,7 +4405,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4321,7 +4425,7 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
@@ -4341,7 +4445,7 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
@@ -4365,7 +4469,7 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="25" t="s">
         <v>19</v>
@@ -4391,7 +4495,7 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="25" t="s">
         <v>21</v>
@@ -4417,7 +4521,7 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
         <v>22</v>
@@ -4443,7 +4547,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
         <v>29</v>
@@ -4469,7 +4573,7 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
         <v>34</v>
@@ -4495,7 +4599,7 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
         <v>37</v>
@@ -4519,7 +4623,7 @@
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
         <v>32</v>
@@ -4543,7 +4647,7 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
         <v>39</v>
@@ -4567,7 +4671,7 @@
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
         <v>41</v>
@@ -4593,13 +4697,13 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="40" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="33"/>
@@ -4617,7 +4721,7 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
         <v>90</v>
@@ -4643,7 +4747,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
     </row>
-    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
@@ -4663,7 +4767,7 @@
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -4683,7 +4787,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -4703,7 +4807,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -4723,7 +4827,7 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -4743,7 +4847,7 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -4763,7 +4867,7 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -4783,7 +4887,7 @@
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -4803,7 +4907,7 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -4823,7 +4927,7 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -4843,7 +4947,7 @@
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -4863,7 +4967,7 @@
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -4883,7 +4987,7 @@
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -4903,7 +5007,7 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -4923,7 +5027,7 @@
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -4943,7 +5047,7 @@
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -4963,7 +5067,7 @@
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -4983,7 +5087,7 @@
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -5003,7 +5107,7 @@
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -5023,7 +5127,7 @@
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -5043,7 +5147,7 @@
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -5063,7 +5167,7 @@
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -5083,7 +5187,7 @@
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -5103,7 +5207,7 @@
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -5123,7 +5227,7 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -5143,7 +5247,7 @@
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -5163,7 +5267,7 @@
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -5187,4 +5291,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="78.140625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="B4" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Kafka_Notes.xlsx
+++ b/Kafka_Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15945" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15300" windowHeight="7695" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
@@ -800,8 +800,42 @@
     <t>Create a topic</t>
   </si>
   <si>
+    <t>Create messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kafka-console-producer.bat --topic hello --broker-list localhost:9092
+bin/kafka-console-producer.sh --topic test --broker-list localhost:9092 </t>
+  </si>
+  <si>
+    <t>Start consumer</t>
+  </si>
+  <si>
+    <t>kafka-console-consumer.bat --topic hello --bootstrap-server localhost:9092 --from-beginning
+bin/kafka-console-consumer.sh --zookeeper localhost:2181 --topic test --from-beginning</t>
+  </si>
+  <si>
+    <t>Start kafka server</t>
+  </si>
+  <si>
+    <t>Start Zookeeper server</t>
+  </si>
+  <si>
+    <t>bin/zookeeper-server-start.sh config/zookeeper.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bin/kafka-server-start.sh config/server.properties
+</t>
+  </si>
+  <si>
+    <t>list of topic</t>
+  </si>
+  <si>
+    <t>kafka-topics.bat --list --zookeeper localhost:2020</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">kafka-topics.bat --create --topic test --zookeeper localhost:2020 --partitions 1 --replication-factor 1
+bin/kafka-topics.sh --describe --zookeeper localhost:2020 --topic storm-test-topic
 </t>
     </r>
     <r>
@@ -825,39 +859,6 @@
 bin/kafka-topics.sh --list --zookeeper localhost:2181
 bin/kafka-topics.sh --zookeeper localhost:2181 --describe --topic test</t>
     </r>
-  </si>
-  <si>
-    <t>Create messages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kafka-console-producer.bat --topic hello --broker-list localhost:9092
-bin/kafka-console-producer.sh --topic test --broker-list localhost:9092 </t>
-  </si>
-  <si>
-    <t>Start consumer</t>
-  </si>
-  <si>
-    <t>kafka-console-consumer.bat --topic hello --bootstrap-server localhost:9092 --from-beginning
-bin/kafka-console-consumer.sh --zookeeper localhost:2181 --topic test --from-beginning</t>
-  </si>
-  <si>
-    <t>Start kafka server</t>
-  </si>
-  <si>
-    <t>Start Zookeeper server</t>
-  </si>
-  <si>
-    <t>bin/zookeeper-server-start.sh config/zookeeper.properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bin/kafka-server-start.sh config/server.properties
-</t>
-  </si>
-  <si>
-    <t>list of topic</t>
-  </si>
-  <si>
-    <t>kafka-topics.bat --list --zookeeper localhost:2020</t>
   </si>
 </sst>
 </file>
@@ -5297,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5313,13 +5314,13 @@
   <sheetData>
     <row r="3" spans="2:5" ht="72" x14ac:dyDescent="0.25">
       <c r="B3" s="64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>128</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>126</v>
@@ -5327,45 +5328,45 @@
     </row>
     <row r="4" spans="2:5" ht="72" x14ac:dyDescent="0.25">
       <c r="B4" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="64" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="63" t="s">
         <v>131</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>133</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>139</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Kafka_Notes.xlsx
+++ b/Kafka_Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="15300" windowHeight="7695" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15300" windowHeight="7695" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
   <si>
     <t>Kafka</t>
   </si>
@@ -859,6 +859,14 @@
 bin/kafka-topics.sh --list --zookeeper localhost:2181
 bin/kafka-topics.sh --zookeeper localhost:2181 --describe --topic test</t>
     </r>
+  </si>
+  <si>
+    <t>Stop server</t>
+  </si>
+  <si>
+    <t>first stop Kafka server and then zookeeper
+1) bin/zkServer.sh start / stop
+2) bin/kafka-server-start.sh config/server.properties</t>
   </si>
 </sst>
 </file>
@@ -3025,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3518,7 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5296,10 +5304,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E8"/>
+  <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,6 +5377,17 @@
         <v>139</v>
       </c>
     </row>
+    <row r="9" spans="2:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="C9" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
